--- a/dataset-generators/flights/flights.xlsx
+++ b/dataset-generators/flights/flights.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" state="visible" r:id="rId1"/>
@@ -434,10 +434,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -464,255 +464,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poznan</t>
+          <t>Warsaw</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gdansk</t>
+          <t>Krakov</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Budapest</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Krakov</t>
+          <t>Rijeka</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dresden</t>
+          <t>Zagreb</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Napoli</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>Rome</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Belgrade</t>
+          <t>Innsbruck</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tirane</t>
+          <t>Vienna</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Prague</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Berlin</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Graz</t>
+          <t>Hamburg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Munich</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rome</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Innsbruck</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Salzburg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Vienna</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>Brno</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Magdeburg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Hamburg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Munich</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Frankfurt</t>
-        </is>
-      </c>
-    </row>
-    <row r="27"/>
+    <row r="16"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -724,9 +611,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -763,12 +650,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poznan</t>
+          <t>Krakov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Krakov</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -781,12 +668,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gdansk</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -799,16 +686,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gdansk</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Poznan</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
@@ -817,16 +704,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Krakov</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -835,12 +722,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dresden</t>
+          <t>Munich</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -853,16 +740,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Munich</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Innsbruck</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -871,12 +758,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Innsbruck</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -889,16 +776,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dresden</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Budapest</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -907,16 +794,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Budapest</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
@@ -925,16 +812,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Zagreb</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Budapest</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bratislava</t>
-        </is>
-      </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
@@ -943,16 +830,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13">
@@ -961,16 +848,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Belgrade</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
@@ -979,16 +866,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tirane</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Belgrade</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -997,16 +884,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Belgrade</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -1015,16 +902,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Vienna</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Rijeka</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Zagreb</t>
-        </is>
-      </c>
       <c r="D16" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17">
@@ -1033,7 +920,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1051,7 +938,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Graz</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1060,7 +947,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19">
@@ -1069,16 +956,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Graz</t>
+          <t>Munich</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Zagreb</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20">
@@ -1087,16 +974,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Innsbruck</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21">
@@ -1105,16 +992,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Innsbruck</t>
+          <t>Budapest</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22">
@@ -1123,7 +1010,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Budapest</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,7 +1019,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23">
@@ -1141,16 +1028,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -1159,412 +1046,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Budapest</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Munich</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Frankfurt</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Munich</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Rome</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Tirane</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Munich</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Innsbruck</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Rome</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Rijeka</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Tirane</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Rijeka</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Vienna</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Dresden</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Magdeburg</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Munich</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Magdeburg</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Warsaw</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Bratislava</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Vienna</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Zagreb</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Vienna</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Rome</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Bratislava</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Rome</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Warsaw</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Rome</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Rome</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Brno</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Graz</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Munich</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
